--- a/input_files/case_files/BTES_price_taker.xlsx
+++ b/input_files/case_files/BTES_price_taker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/Library/Group Containers/G69SCX94XU.duck/Library/Application Support/duck/Volumes.noindex/DPB-DGE Data Transfer Node.localized/nobackup/scratch/awongel/clab_borehole_th_storage/input_files/case_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/Work/clab_borehole_th_storage/input_files/case_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC512A2-C4D9-6A4F-8D48-0ECF882252A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596FC60E-FA1C-D448-91D2-D56CE7393A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34040" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_intermodel_one_node_" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>Note that demand has no decisions.</t>
   </si>
@@ -278,9 +278,6 @@
     <t>input_files</t>
   </si>
   <si>
-    <t>btes_output</t>
-  </si>
-  <si>
     <t>input_files/costs_orca_base.csv</t>
   </si>
   <si>
@@ -296,15 +293,9 @@
     <t>2020-01-01 0:00:00</t>
   </si>
   <si>
-    <t>btes_base_case_orca_solar_colocated</t>
-  </si>
-  <si>
     <t>p_set</t>
   </si>
   <si>
-    <t>p_max_pu</t>
-  </si>
-  <si>
     <t>const_generator</t>
   </si>
   <si>
@@ -329,10 +320,16 @@
     <t>electricity_out</t>
   </si>
   <si>
-    <t>electricity_cost_base_case_neg.csv</t>
-  </si>
-  <si>
     <t>power_out_average_store</t>
+  </si>
+  <si>
+    <t>-1*electricity_cost_base_case.csv</t>
+  </si>
+  <si>
+    <t>btes_base_case_orca_price_taker</t>
+  </si>
+  <si>
+    <t>btes_output_price_taker_base</t>
   </si>
 </sst>
 </file>
@@ -1225,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1241,8 +1238,8 @@
     <col min="7" max="7" width="24.1640625" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
     <col min="12" max="12" width="11.1640625" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" customWidth="1"/>
     <col min="14" max="14" width="19" customWidth="1"/>
@@ -1491,7 +1488,7 @@
         <v>66</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1507,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1515,7 +1512,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1523,7 +1520,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" t="s">
@@ -1535,7 +1532,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="6"/>
     </row>
@@ -1670,7 +1667,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:22" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>11</v>
       </c>
@@ -1690,83 +1687,80 @@
         <v>67</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="L49" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="M49" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P49" s="9" t="s">
+      <c r="O49" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>30</v>
       </c>
       <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J50" t="s">
+        <v>89</v>
+      </c>
+      <c r="K50" t="s">
         <v>90</v>
       </c>
-      <c r="D50" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" t="s">
-        <v>92</v>
-      </c>
-      <c r="L50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
         <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E51" t="s">
         <v>76</v>
       </c>
+      <c r="H51" t="s">
+        <v>72</v>
+      </c>
       <c r="I51" t="s">
+        <v>91</v>
+      </c>
+      <c r="J51" t="s">
         <v>72</v>
       </c>
-      <c r="J51" t="s">
-        <v>94</v>
-      </c>
       <c r="K51" t="s">
+        <v>90</v>
+      </c>
+      <c r="M51" t="s">
         <v>72</v>
-      </c>
-      <c r="L51" t="s">
-        <v>93</v>
       </c>
       <c r="N51" t="s">
         <v>72</v>
       </c>
-      <c r="O51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -1779,37 +1773,37 @@
       <c r="D52" t="s">
         <v>76</v>
       </c>
+      <c r="H52" t="s">
+        <v>72</v>
+      </c>
       <c r="I52" t="s">
+        <v>91</v>
+      </c>
+      <c r="J52" t="s">
         <v>72</v>
       </c>
-      <c r="J52" t="s">
-        <v>94</v>
-      </c>
       <c r="K52" t="s">
+        <v>90</v>
+      </c>
+      <c r="L52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
         <v>72</v>
-      </c>
-      <c r="L52" t="s">
-        <v>93</v>
-      </c>
-      <c r="M52" t="b">
-        <v>1</v>
       </c>
       <c r="N52" t="s">
         <v>72</v>
       </c>
-      <c r="O52" t="s">
-        <v>72</v>
-      </c>
-      <c r="P52">
+      <c r="O52">
         <v>1E-10</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
         <v>74</v>
@@ -1818,66 +1812,66 @@
         <v>76</v>
       </c>
       <c r="E53" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="H53" t="s">
+        <v>72</v>
       </c>
       <c r="I53" t="s">
+        <v>91</v>
+      </c>
+      <c r="J53" t="s">
         <v>72</v>
       </c>
-      <c r="J53" t="s">
-        <v>94</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53" t="s">
-        <v>93</v>
+      <c r="K53" t="s">
+        <v>90</v>
+      </c>
+      <c r="M53" t="s">
+        <v>72</v>
       </c>
       <c r="N53" t="s">
         <v>72</v>
       </c>
-      <c r="O53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
       <c r="B54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" t="s">
+        <v>94</v>
+      </c>
+      <c r="J54" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" t="s">
-        <v>97</v>
-      </c>
       <c r="K54" t="s">
-        <v>98</v>
-      </c>
-      <c r="L54" t="s">
-        <v>93</v>
-      </c>
-      <c r="R54" s="5"/>
-      <c r="V54" s="5"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="Q54" s="5"/>
+      <c r="U54" s="5"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
-      </c>
-      <c r="M55" t="b">
+        <v>94</v>
+      </c>
+      <c r="L55" t="b">
         <v>1</v>
       </c>
-      <c r="R55" s="5"/>
-      <c r="V55" s="5"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q55" s="5"/>
+      <c r="U55" s="5"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -1885,13 +1879,13 @@
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
-      </c>
-      <c r="H56">
+        <v>94</v>
+      </c>
+      <c r="G56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="I57" s="15"/>
       <c r="K57" s="5"/>
@@ -1899,22 +1893,22 @@
       <c r="O57" s="5"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>32</v>
       </c>
@@ -1923,7 +1917,7 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>55</v>
       </c>

--- a/input_files/case_files/BTES_price_taker.xlsx
+++ b/input_files/case_files/BTES_price_taker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/Work/clab_borehole_th_storage/input_files/case_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/mb/bhrh7_m94j739pkhyn5p1l3w0000gn/T/fz3temp-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596FC60E-FA1C-D448-91D2-D56CE7393A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65BDE20-2162-7341-89A6-C2149D6B6C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34040" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_intermodel_one_node_" sheetId="1" r:id="rId1"/>
@@ -287,12 +287,6 @@
     <t>BTES_discharger</t>
   </si>
   <si>
-    <t>2016-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2020-01-01 0:00:00</t>
-  </si>
-  <si>
     <t>p_set</t>
   </si>
   <si>
@@ -330,6 +324,12 @@
   </si>
   <si>
     <t>btes_output_price_taker_base</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-12-31 23:00:00</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:U63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1504,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1512,7 +1512,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1520,7 +1520,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" t="s">
@@ -1532,7 +1532,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C31" s="6"/>
     </row>
@@ -1550,8 +1550,8 @@
         <v>61</v>
       </c>
       <c r="B33" s="11">
-        <f>(B31-B30)*24/B32</f>
-        <v>35064</v>
+        <f>((B31-B30)*24+1)/B32</f>
+        <v>8760.0000000000582</v>
       </c>
       <c r="C33" t="s">
         <v>60</v>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B34" s="11">
         <f>B33*B32</f>
-        <v>35064</v>
+        <v>8760.0000000000582</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -1687,7 +1687,7 @@
         <v>67</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>14</v>
@@ -1713,16 +1713,16 @@
         <v>30</v>
       </c>
       <c r="B50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="J50" t="s">
         <v>87</v>
       </c>
-      <c r="D50" t="s">
+      <c r="K50" t="s">
         <v>88</v>
-      </c>
-      <c r="J50" t="s">
-        <v>89</v>
-      </c>
-      <c r="K50" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -1736,7 +1736,7 @@
         <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E51" t="s">
         <v>76</v>
@@ -1745,13 +1745,13 @@
         <v>72</v>
       </c>
       <c r="I51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s">
         <v>72</v>
       </c>
       <c r="K51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M51" t="s">
         <v>72</v>
@@ -1777,13 +1777,13 @@
         <v>72</v>
       </c>
       <c r="I52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s">
         <v>72</v>
       </c>
       <c r="K52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L52" t="b">
         <v>1</v>
@@ -1812,19 +1812,19 @@
         <v>76</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s">
         <v>72</v>
       </c>
       <c r="I53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s">
         <v>72</v>
       </c>
       <c r="K53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M53" t="s">
         <v>72</v>
@@ -1838,19 +1838,19 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" t="s">
         <v>92</v>
       </c>
-      <c r="E54" t="s">
+      <c r="J54" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J54" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="K54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q54" s="5"/>
       <c r="U54" s="5"/>
@@ -1860,10 +1860,10 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L55" t="b">
         <v>1</v>
@@ -1879,7 +1879,7 @@
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G56">
         <v>1</v>

--- a/input_files/case_files/BTES_price_taker.xlsx
+++ b/input_files/case_files/BTES_price_taker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/mb/bhrh7_m94j739pkhyn5p1l3w0000gn/T/fz3temp-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/m_/v6c97p3x1mg6bmvchddj43dc0000gn/T/fz3temp-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65BDE20-2162-7341-89A6-C2149D6B6C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB681AE5-944E-2B46-84A3-AC6E01838493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_intermodel_one_node_" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
   <si>
     <t>Note that demand has no decisions.</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>2019-12-31 23:00:00</t>
+  </si>
+  <si>
+    <t>db_marginal_cost</t>
+  </si>
+  <si>
+    <t>db_capital_cost</t>
   </si>
 </sst>
 </file>
@@ -1224,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1742,13 +1748,13 @@
         <v>76</v>
       </c>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="I51" t="s">
         <v>89</v>
       </c>
       <c r="J51" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="K51" t="s">
         <v>88</v>
@@ -1774,13 +1780,13 @@
         <v>76</v>
       </c>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="I52" t="s">
         <v>89</v>
       </c>
       <c r="J52" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="K52" t="s">
         <v>88</v>
@@ -1815,13 +1821,13 @@
         <v>90</v>
       </c>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="I53" t="s">
         <v>89</v>
       </c>
       <c r="J53" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="K53" t="s">
         <v>88</v>

--- a/input_files/case_files/BTES_price_taker.xlsx
+++ b/input_files/case_files/BTES_price_taker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/m_/v6c97p3x1mg6bmvchddj43dc0000gn/T/fz3temp-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/mb/bhrh7_m94j739pkhyn5p1l3w0000gn/T/fz3temp-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB681AE5-944E-2B46-84A3-AC6E01838493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6598AD6D-DA61-324C-A48E-DF66E949F3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,46 +296,46 @@
     <t>electricity_gen</t>
   </si>
   <si>
+    <t>$/MWh</t>
+  </si>
+  <si>
+    <t>$/time range/MW</t>
+  </si>
+  <si>
+    <t>electricity_discharged</t>
+  </si>
+  <si>
+    <t>power_seller</t>
+  </si>
+  <si>
+    <t>electricity_out</t>
+  </si>
+  <si>
+    <t>power_out_average_store</t>
+  </si>
+  <si>
+    <t>btes_base_case_orca_price_taker</t>
+  </si>
+  <si>
+    <t>btes_output_price_taker_base</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-12-31 23:00:00</t>
+  </si>
+  <si>
+    <t>db_marginal_cost</t>
+  </si>
+  <si>
+    <t>db_capital_cost</t>
+  </si>
+  <si>
+    <t>-1*electricity_cost_base_case.csv</t>
+  </si>
+  <si>
     <t>electricity_cost_base_case.csv</t>
-  </si>
-  <si>
-    <t>$/MWh</t>
-  </si>
-  <si>
-    <t>$/time range/MW</t>
-  </si>
-  <si>
-    <t>electricity_discharged</t>
-  </si>
-  <si>
-    <t>power_seller</t>
-  </si>
-  <si>
-    <t>electricity_out</t>
-  </si>
-  <si>
-    <t>power_out_average_store</t>
-  </si>
-  <si>
-    <t>-1*electricity_cost_base_case.csv</t>
-  </si>
-  <si>
-    <t>btes_base_case_orca_price_taker</t>
-  </si>
-  <si>
-    <t>btes_output_price_taker_base</t>
-  </si>
-  <si>
-    <t>2019-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-12-31 23:00:00</t>
-  </si>
-  <si>
-    <t>db_marginal_cost</t>
-  </si>
-  <si>
-    <t>db_capital_cost</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1231,7 @@
   <dimension ref="A1:U63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1510,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1518,7 +1518,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1526,7 +1526,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" t="s">
@@ -1538,7 +1538,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C31" s="6"/>
     </row>
@@ -1724,11 +1724,11 @@
       <c r="D50" t="s">
         <v>86</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K50" t="s">
         <v>87</v>
-      </c>
-      <c r="K50" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -1748,16 +1748,16 @@
         <v>76</v>
       </c>
       <c r="H51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M51" t="s">
         <v>72</v>
@@ -1780,16 +1780,16 @@
         <v>76</v>
       </c>
       <c r="H52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L52" t="b">
         <v>1</v>
@@ -1818,19 +1818,19 @@
         <v>76</v>
       </c>
       <c r="E53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M53" t="s">
         <v>72</v>
@@ -1844,19 +1844,19 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" t="s">
         <v>91</v>
       </c>
-      <c r="D54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" t="s">
-        <v>92</v>
-      </c>
       <c r="J54" s="6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q54" s="5"/>
       <c r="U54" s="5"/>
@@ -1866,10 +1866,10 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L55" t="b">
         <v>1</v>
@@ -1885,7 +1885,7 @@
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56">
         <v>1</v>

--- a/input_files/case_files/BTES_price_taker.xlsx
+++ b/input_files/case_files/BTES_price_taker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/mb/bhrh7_m94j739pkhyn5p1l3w0000gn/T/fz3temp-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/m_/v6c97p3x1mg6bmvchddj43dc0000gn/T/fz3temp-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6598AD6D-DA61-324C-A48E-DF66E949F3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073FE005-9883-1B47-B4A5-460BF28B1A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,12 +320,6 @@
     <t>btes_output_price_taker_base</t>
   </si>
   <si>
-    <t>2019-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2019-12-31 23:00:00</t>
-  </si>
-  <si>
     <t>db_marginal_cost</t>
   </si>
   <si>
@@ -336,6 +330,12 @@
   </si>
   <si>
     <t>electricity_cost_base_case.csv</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-12-31 23:00:00</t>
   </si>
 </sst>
 </file>
@@ -1230,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1526,7 +1526,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" t="s">
@@ -1538,7 +1538,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C31" s="6"/>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B33" s="11">
         <f>((B31-B30)*24+1)/B32</f>
-        <v>8760.0000000000582</v>
+        <v>35064.000000000058</v>
       </c>
       <c r="C33" t="s">
         <v>60</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B34" s="11">
         <f>B33*B32</f>
-        <v>8760.0000000000582</v>
+        <v>35064.000000000058</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -1725,7 +1725,7 @@
         <v>86</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K50" t="s">
         <v>87</v>
@@ -1748,13 +1748,13 @@
         <v>76</v>
       </c>
       <c r="H51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I51" t="s">
         <v>88</v>
       </c>
       <c r="J51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K51" t="s">
         <v>87</v>
@@ -1780,13 +1780,13 @@
         <v>76</v>
       </c>
       <c r="H52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I52" t="s">
         <v>88</v>
       </c>
       <c r="J52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s">
         <v>87</v>
@@ -1821,13 +1821,13 @@
         <v>89</v>
       </c>
       <c r="H53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I53" t="s">
         <v>88</v>
       </c>
       <c r="J53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K53" t="s">
         <v>87</v>
@@ -1853,7 +1853,7 @@
         <v>91</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K54" t="s">
         <v>87</v>
